--- a/biology/Botanique/Rkatsiteli/Rkatsiteli.xlsx
+++ b/biology/Botanique/Rkatsiteli/Rkatsiteli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Rkatsiteli (géorgien :  რქაწითელი, de "რქა" et "წითელი", littéralement tige rouge) est un cépage utilisé pour produire du vin blanc.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'originaire géorgienne, c'est l'un des plus anciens cépages connus[1]. En Géorgie, des vases d'argile ont été exhumés avec des grains de raisin Rkatsiteli qui ont été datés de 3 000 ans avant notre ère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'originaire géorgienne, c'est l'un des plus anciens cépages connus. En Géorgie, des vases d'argile ont été exhumés avec des grains de raisin Rkatsiteli qui ont été datés de 3 000 ans avant notre ère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se retrouve dans toutes les régions autour de la mer Noire : Géorgie, Daghestan, Tchétchénie, Ingouchie, Stavropol, Krasnodar et Crimée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se retrouve dans toutes les régions autour de la mer Noire : Géorgie, Daghestan, Tchétchénie, Ingouchie, Stavropol, Krasnodar et Crimée.
 Il permet d'élaborer des vins blancs de haute qualité, vins doux naturels, vins mutés et brandies, ainsi que du jus de raisin. Il peut être aussi utilisé en raisin de table.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est encore dénommé Baiyu, Budatschuri, Budaschuri, Dedai rkacitelli, Dedali oder Dedali rekacitelli, Grusinskii, Grusinskü rkatsitelli, Kachura, Korolek, Koroliok, Kukura, Mamoli rkatsitelli, Osanlugue, Rkachiteli, Rkaciteli, Rkatiteli, Rkatsiteli, Rkatsitelli, Rkaziteli Dedali, Rkatsiteli Mamali, Rkaziteli, Rkatzitelli, Rothhölzer, Rusinskii Tapolek, Topolek, Topoliok et Zweiabazer.
 </t>
